--- a/data/trans_dic/P24_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de estómago con bastante o mucha frecuencia</t>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>11,76%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,45%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,33%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>18,29%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22,87%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>8,54%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>9,86%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>11,01%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,51</t>
+          <t>3,5; 7,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,56</t>
+          <t>5,15; 9,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,32</t>
+          <t>5,49; 9,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,71</t>
+          <t>4,37; 8,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,76</t>
+          <t>5,16; 9,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 14,34</t>
+          <t>8,74; 13,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,14</t>
+          <t>12,66; 18,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 17,98</t>
+          <t>9,56; 14,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,16</t>
+          <t>10,28; 15,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,01</t>
+          <t>13,1; 18,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,43</t>
+          <t>12,79; 18,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 11,69</t>
+          <t>14,63; 20,99</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 13,43</t>
+          <t>15,84; 21,37</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 12,77</t>
+          <t>20,14; 25,97</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,03; 16,58</t>
+          <t>7,12; 10,17</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 11,6</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 13,36</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 12,84</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 14,91</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 16,99</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>17,43; 21,46</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>9,04%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,09%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>19,61%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>7,2%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,46%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>11,9%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>11,01%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>15,45%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,3</t>
+          <t>3,76; 7,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 12,09</t>
+          <t>4,98; 12,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 13,29</t>
+          <t>8,08; 13,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,89</t>
+          <t>6,74; 13,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,43</t>
+          <t>7,58; 14,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,6</t>
+          <t>8,03; 16,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,75</t>
+          <t>7,04; 14,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,93</t>
+          <t>6,97; 11,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 15,26</t>
+          <t>9,48; 15,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,96</t>
+          <t>10,96; 16,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,75</t>
+          <t>10,08; 15,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,35</t>
+          <t>16,22; 25,04</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 13,97</t>
+          <t>14,56; 26,03</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,5</t>
+          <t>15,89; 27,37</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,26</t>
+          <t>5,97; 8,82</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 12,92</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10,06; 13,99</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 13,4</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 18,82</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 19,32</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 19,15</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>11,03%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,48%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>7,72%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>11,31%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>20,48%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 8,44</t>
+          <t>2,02; 9,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 24,88</t>
+          <t>4,94; 29,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,36</t>
+          <t>2,77; 9,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,32</t>
+          <t>3,7; 12,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>8,4; 37,05</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 17,13</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 22,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 18,25</t>
+          <t>6,97; 16,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,0; 19,74</t>
+          <t>5,39; 14,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>8,03; 18,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 20,22</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 33,12</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,14; 11,34</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>6,68; 19,33</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 12,56</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 14,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 10,91</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 21,09</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 12,73</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 14,87</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 30,37</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>11,25%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>10,61%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,07%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>14,15%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>18,57%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22,37%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>7,91%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,87%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>11,42%</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>10,97%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>14,92%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,43</t>
+          <t>3,79; 6,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,45</t>
+          <t>5,94; 10,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,31</t>
+          <t>6,98; 10,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,73</t>
+          <t>6,05; 9,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,44</t>
+          <t>7,79; 12,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,1</t>
+          <t>9,32; 13,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,12</t>
+          <t>12,06; 17,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 15,84</t>
+          <t>9,14; 12,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,59; 16,22</t>
+          <t>10,35; 13,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,31</t>
+          <t>12,49; 15,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 8,91</t>
+          <t>12,42; 15,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,46</t>
+          <t>17,09; 22,13</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 12,64</t>
+          <t>16,1; 21,14</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,38</t>
+          <t>19,89; 25,04</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 16,74</t>
+          <t>6,92; 8,93</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 11,43</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 12,51</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 12,31</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>13,08; 16,73</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 16,5</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 20,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de estómago con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>82396</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>115622</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>119767</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>99914</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>115788</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25461</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35208</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>210585</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>225552</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>281529</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>283195</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>318001</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>43408</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>53919</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>292981</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>341173</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>401296</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>383109</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>433789</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>68870</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>89128</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>57334; 127500</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>85148; 151890</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89842; 158096</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>71947; 136707</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>84502; 160928</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20022; 31059</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28687; 42152</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>171170; 256021</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>185686; 272063</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>238491; 330103</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>232609; 330707</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>263490; 378049</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>37607; 50737</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>47483; 61241</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>244345; 348909</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>289912; 401365</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>346655; 461883</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>331639; 444724</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>364572; 512929</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>60961; 79229</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>80603; 99213</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73799</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101050</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>145486</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128618</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>145895</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8438</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7626</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>127413</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>170685</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>182629</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>172449</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>281416</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12856</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13712</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>201212</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>271735</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>328114</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>301067</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>427311</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>21294</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>21338</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52199; 103611</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>68268; 165593</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>111203; 183209</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>92936; 182980</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>104676; 194020</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5803; 11998</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5133; 10936</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>98273; 161600</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>131972; 218345</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>150175; 222934</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>138952; 210722</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>226130; 349191</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9549; 17068</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10575; 18217</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>167000; 246777</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>220115; 356947</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>276497; 384269</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>251034; 369638</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>357560; 522353</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>17039; 26635</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>16613; 26713</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19004</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50045</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23347</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30922</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>71147</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45420</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37890</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50411</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>57573</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98582</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>64424</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>87935</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>73759</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>88495</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>169729</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8522; 40586</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20902; 125319</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11705; 41920</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15634; 53960</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35042; 154462</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28707; 67200</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22188; 61418</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32493; 74560</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39349; 82804</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70287; 136404</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>44043; 91043</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>55926; 176003</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>52352; 105330</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>63502; 123787</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>126241; 251717</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>175199</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>266717</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>288600</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>259454</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>332829</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33899</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42834</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>383418</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>434127</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>514569</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>513216</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>698000</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>56265</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>67631</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>558617</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>700844</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>803169</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>772670</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1030829</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>90164</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>110466</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>130594; 225350</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>204659; 367340</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>239744; 348828</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>208573; 334567</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>267756; 435213</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28079; 41484</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36125; 52025</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>330274; 439408</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>373564; 505195</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>448891; 574373</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>448122; 575270</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>616423; 798262</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>48773; 64034</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>60142; 75701</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>488756; 630398</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>602876; 806330</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>726253; 879406</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>690148; 868051</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>921401; 1178049</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>80149; 99710</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100279; 122657</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
